--- a/template/dailyStatement.xlsx
+++ b/template/dailyStatement.xlsx
@@ -14,36 +14,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>深圳市拜特科技股份有限公司日对账单</t>
   </si>
   <si>
-    <t>对账单号：{{daily.refNo}}</t>
+    <t>对账单号：${daily.refNo}</t>
   </si>
   <si>
     <t>币种：人民币</t>
   </si>
   <si>
-    <t>企业名称：{{daily.ownCustName}}</t>
-  </si>
-  <si>
-    <t>对账日期：{{daily.payDate}}</t>
+    <t>企业名称：${daily.ownCustName}</t>
+  </si>
+  <si>
+    <t>对账日期：${daily.payDate}</t>
   </si>
   <si>
     <t>金额单位：元</t>
   </si>
   <si>
+    <t>&lt;jx:if test="${page.currentPage == 1}"&gt;</t>
+  </si>
+  <si>
     <t>支付佣金本金</t>
   </si>
   <si>
     <t>支付佣金笔数</t>
   </si>
   <si>
-    <t>{{daily.totalBalance}}</t>
-  </si>
-  <si>
-    <t>{{daily.totalAmount}}</t>
+    <t>${daily.paySuccessBalance}</t>
+  </si>
+  <si>
+    <t>${daily.paySuccessAmount}</t>
+  </si>
+  <si>
+    <t>&lt;/jx:if&gt;</t>
   </si>
   <si>
     <t>交易日期</t>
@@ -67,37 +73,46 @@
     <t>交易摘要</t>
   </si>
   <si>
-    <t>{{$fe:recordList t.payDate</t>
-  </si>
-  <si>
-    <t>t.payTime</t>
-  </si>
-  <si>
-    <t>t.recordRefNo</t>
-  </si>
-  <si>
-    <t>t.payBalance</t>
-  </si>
-  <si>
-    <t>t.payTargetBankAccount</t>
-  </si>
-  <si>
-    <t>t.payTargetBankAccountName</t>
-  </si>
-  <si>
-    <t>t.payComment}}</t>
-  </si>
-  <si>
-    <t>制表单位：{{daily.makeCustName}}</t>
-  </si>
-  <si>
-    <t>制表人：{{daily.operName}}  制表时间：{{daily.makeDate}} {{daily.makeTime}}</t>
+    <t>&lt;jx:forEach items="${page.list}" var="t"&gt;</t>
+  </si>
+  <si>
+    <t>${t.payDate}</t>
+  </si>
+  <si>
+    <t>${t.payTime}</t>
+  </si>
+  <si>
+    <t>${t.recordRefNo}</t>
+  </si>
+  <si>
+    <t>${t.payBalance}</t>
+  </si>
+  <si>
+    <t>${t.payTargetBankAccount}</t>
+  </si>
+  <si>
+    <t>${t.payTargetBankAccountName}</t>
+  </si>
+  <si>
+    <t>${t.payComment}</t>
+  </si>
+  <si>
+    <t>&lt;/jx:forEach&gt;</t>
+  </si>
+  <si>
+    <t>制表单位：${daily.makeCustName}</t>
+  </si>
+  <si>
+    <t>制表人：${daily.operName}   制表时间：${daily.makeDate}  ${daily.makeTime}</t>
   </si>
   <si>
     <t>客户签字盖章：</t>
   </si>
   <si>
     <t>备注：收到对账单后，请于三个工作日内签字、盖章确认，如果未收到确认回复，视为默认。</t>
+  </si>
+  <si>
+    <t>第 ${page.currentPage} 页 共 ${page.totalPage} 页</t>
   </si>
 </sst>
 </file>
@@ -111,7 +126,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +158,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -150,13 +171,65 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -164,7 +237,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,32 +267,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,93 +313,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,25 +333,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,67 +513,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,90 +526,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,6 +609,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -597,26 +633,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,7 +667,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,40 +706,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -697,165 +724,168 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -874,24 +904,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -906,6 +960,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1247,182 +1313,232 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:I10"/>
+  <dimension ref="B1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="0.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23" style="1" customWidth="1"/>
-    <col min="10" max="10" width="2.5" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="0.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="23.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="2.5" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="3.75" customHeight="1" spans="2:9">
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" ht="23.25" customHeight="1" spans="2:9">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:9">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="6"/>
+      <c r="I4" s="7"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1" spans="2:9">
-      <c r="B5" s="7" t="s">
+    <row r="5" ht="16.5" customHeight="1" spans="2:9">
+      <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="2:9">
-      <c r="B6" s="10" t="s">
-        <v>8</v>
+      <c r="B6" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
       <c r="I6" s="11"/>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="2:9">
       <c r="B7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" spans="2:9">
+      <c r="B8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" spans="2:9">
+      <c r="B9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="C9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="D9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="12" t="s">
+      <c r="E9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="F9" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="14" t="s">
+    <row r="10" s="1" customFormat="1" ht="15.75" customHeight="1" spans="2:9">
+      <c r="B10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="C11" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="14" t="s">
+      <c r="D11" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="E11" s="24" t="s">
         <v>23</v>
       </c>
+      <c r="F11" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="26"/>
+      <c r="H11" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="9" ht="21.75" customHeight="1" spans="2:9">
-      <c r="B9" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="18"/>
+    <row r="12" spans="2:9">
+      <c r="B12" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
     </row>
-    <row r="10" ht="28.5" customHeight="1" spans="2:9">
-      <c r="B10" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
+    <row r="13" s="2" customFormat="1" ht="21.75" customHeight="1" spans="2:9">
+      <c r="B13" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="31"/>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="28.5" customHeight="1" spans="2:9">
+      <c r="B14" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -1433,17 +1549,17 @@
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:I5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:I14"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
